--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866CFBE5-8EB9-4948-B1B4-3BDE46BC8255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F15F5-5F94-4D27-A642-EA7E92FC1912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey </t>
   </si>
 </sst>
 </file>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B5D8C9-EF3E-4709-AB98-C706ED400A04}">
-  <dimension ref="B4:S13"/>
+  <dimension ref="B4:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q12" si="1">100-P7</f>
+        <f t="shared" ref="Q7:Q11" si="1">100-P7</f>
         <v>80</v>
       </c>
       <c r="R7">
@@ -806,7 +810,7 @@
         <v>40</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q13" si="2">100-P12</f>
+        <f t="shared" ref="Q12" si="2">100-P12</f>
         <v>60</v>
       </c>
       <c r="R12">
@@ -837,7 +841,692 @@
         <v>11.928140429652601</v>
       </c>
     </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f>100-D17</f>
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>3.2487699999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.69129910410225104</v>
+      </c>
+      <c r="N17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>67</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <f>100-P17</f>
+        <v>80</v>
+      </c>
+      <c r="R17">
+        <v>5.7112119999999997</v>
+      </c>
+      <c r="S17">
+        <v>7.2842505714316399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f>100-D18</f>
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>3.482208</v>
+      </c>
+      <c r="G18">
+        <v>1.1069358866452399</v>
+      </c>
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>67</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q25" si="4">100-P18</f>
+        <v>70</v>
+      </c>
+      <c r="R18">
+        <v>5.3167619999999998</v>
+      </c>
+      <c r="S18">
+        <v>4.9779637684256599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E43" si="5">100-D19</f>
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>3.4299849999999998</v>
+      </c>
+      <c r="G19">
+        <v>1.18877781603857</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>67</v>
+      </c>
+      <c r="P19">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="R19">
+        <v>4.5033779999999997</v>
+      </c>
+      <c r="S19">
+        <v>5.5834070469643802</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>3.4058489999999999</v>
+      </c>
+      <c r="G20">
+        <v>2.7266323328228901</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="R20">
+        <v>5.1953639999999996</v>
+      </c>
+      <c r="S20">
+        <v>6.5066298978819299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>3.691735</v>
+      </c>
+      <c r="G21">
+        <v>3.7693711555082201</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>67</v>
+      </c>
+      <c r="P21">
+        <v>60</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>5.13802</v>
+      </c>
+      <c r="S21">
+        <v>7.2577161126945002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>3.575536</v>
+      </c>
+      <c r="G22">
+        <v>5.5386694347744001</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>67</v>
+      </c>
+      <c r="P22">
+        <v>70</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R22">
+        <v>4.9762510000000004</v>
+      </c>
+      <c r="S22">
+        <v>6.9350889929584598</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>3.3602590000000001</v>
+      </c>
+      <c r="G23">
+        <v>5.9031720958882801</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>67</v>
+      </c>
+      <c r="P23">
+        <v>75</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R23">
+        <v>5.0394189999999996</v>
+      </c>
+      <c r="S23">
+        <v>7.5579850603140803</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.2616860000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.0067031799196302</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>67</v>
+      </c>
+      <c r="P24">
+        <v>77</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>4.9568589999999997</v>
+      </c>
+      <c r="S24">
+        <v>9.4707476754460203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>84</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>3.455228</v>
+      </c>
+      <c r="G25">
+        <v>10.480366080204099</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="1">
+        <v>67</v>
+      </c>
+      <c r="P25" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4.947902</v>
+      </c>
+      <c r="S25" s="1">
+        <v>9.5094374606762599</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>3.3942190000000001</v>
+      </c>
+      <c r="G26">
+        <v>10.693295137317101</v>
+      </c>
+      <c r="N26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>67</v>
+      </c>
+      <c r="P26">
+        <v>79</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26:Q27" si="6">100-P26</f>
+        <v>21</v>
+      </c>
+      <c r="R26">
+        <v>4.1797810000000002</v>
+      </c>
+      <c r="S26">
+        <v>10.242175155962901</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>3.3427410000000002</v>
+      </c>
+      <c r="G27">
+        <v>20.1677495298506</v>
+      </c>
+      <c r="N27" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <v>67</v>
+      </c>
+      <c r="P27">
+        <v>80</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="R27">
+        <v>5.0800890000000001</v>
+      </c>
+      <c r="S27">
+        <v>17.1032370768324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>273</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <v>3.4166850000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.69516535308817295</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>273</v>
+      </c>
+      <c r="P31">
+        <v>20</v>
+      </c>
+      <c r="Q31">
+        <f>100-P31</f>
+        <v>80</v>
+      </c>
+      <c r="R31">
+        <v>5.3928640000000003</v>
+      </c>
+      <c r="S31">
+        <v>2.2598119140575199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>273</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>3.493706</v>
+      </c>
+      <c r="G32">
+        <v>0.99785228403622295</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1">
+        <v>273</v>
+      </c>
+      <c r="P32" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ref="Q32:Q34" si="7">100-P32</f>
+        <v>75</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5.2150619999999996</v>
+      </c>
+      <c r="S32" s="1">
+        <v>3.91802615221803</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>273</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>3.4669599999999998</v>
+      </c>
+      <c r="G33">
+        <v>1.5542077493008799</v>
+      </c>
+      <c r="N33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>273</v>
+      </c>
+      <c r="P33">
+        <v>26</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="R33">
+        <v>5.4026899999999998</v>
+      </c>
+      <c r="S33">
+        <v>13.477544804007399</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>273</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>3.5209009999999998</v>
+      </c>
+      <c r="G34">
+        <v>4.3247808644527996</v>
+      </c>
+      <c r="N34" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>273</v>
+      </c>
+      <c r="P34">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="R34">
+        <v>5.2237140000000002</v>
+      </c>
+      <c r="S34">
+        <v>12.254725152983999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>273</v>
+      </c>
+      <c r="D35" s="1">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.6453669999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <v>8.8747748463273997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>273</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>3.4838770000000001</v>
+      </c>
+      <c r="G36">
+        <v>16.367180013426299</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>273</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>3.438688</v>
+      </c>
+      <c r="G37">
+        <v>14.9658611276532</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>273</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>2.5063580000000001</v>
+      </c>
+      <c r="G38">
+        <v>29.667021738965399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F15F5-5F94-4D27-A642-EA7E92FC1912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068A6B4-8C4E-4841-B94C-85C5971EC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B5D8C9-EF3E-4709-AB98-C706ED400A04}">
   <dimension ref="B4:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E068A6B4-8C4E-4841-B94C-85C5971EC5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77ABF6B-DAF4-49C9-AAC4-F8E9CECAC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey - Periodic </t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B5D8C9-EF3E-4709-AB98-C706ED400A04}">
-  <dimension ref="B4:S38"/>
+  <dimension ref="B4:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +935,7 @@
         <v>40</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E43" si="5">100-D19</f>
+        <f t="shared" ref="E19:E38" si="5">100-D19</f>
         <v>60</v>
       </c>
       <c r="F19">
@@ -1523,6 +1526,657 @@
       </c>
       <c r="G38">
         <v>29.667021738965399</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>21</v>
+      </c>
+      <c r="P39">
+        <v>20</v>
+      </c>
+      <c r="Q39">
+        <f>100-P39</f>
+        <v>80</v>
+      </c>
+      <c r="R39">
+        <v>4.7831489999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.99760904681600104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>21</v>
+      </c>
+      <c r="P40">
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40:Q42" si="8">100-P40</f>
+        <v>70</v>
+      </c>
+      <c r="R40">
+        <v>4.5763590000000001</v>
+      </c>
+      <c r="S40">
+        <v>1.0065346515301701</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>21</v>
+      </c>
+      <c r="P41">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="R41">
+        <v>5.4477669999999998</v>
+      </c>
+      <c r="S41">
+        <v>0.89126402988916698</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>21</v>
+      </c>
+      <c r="P42">
+        <v>50</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>5.7633320000000001</v>
+      </c>
+      <c r="S42">
+        <v>2.37809584047148</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O43">
+        <v>21</v>
+      </c>
+      <c r="P43">
+        <v>60</v>
+      </c>
+      <c r="Q43">
+        <f>100-P43</f>
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>5.2267419999999998</v>
+      </c>
+      <c r="S43">
+        <v>3.1265392961331799</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>21</v>
+      </c>
+      <c r="P44">
+        <v>70</v>
+      </c>
+      <c r="Q44">
+        <f>100-P44</f>
+        <v>30</v>
+      </c>
+      <c r="R44">
+        <v>5.1972909999999999</v>
+      </c>
+      <c r="S44">
+        <v>6.1579006351889296</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45">
+        <v>21</v>
+      </c>
+      <c r="P45">
+        <v>75</v>
+      </c>
+      <c r="Q45">
+        <f>100-P45</f>
+        <v>25</v>
+      </c>
+      <c r="R45">
+        <v>5.1765559999999997</v>
+      </c>
+      <c r="S45">
+        <v>7.2529884583681898</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>21</v>
+      </c>
+      <c r="P46">
+        <v>77</v>
+      </c>
+      <c r="Q46">
+        <f>100-P46</f>
+        <v>23</v>
+      </c>
+      <c r="R46">
+        <v>5.114509</v>
+      </c>
+      <c r="S46">
+        <v>9.0335425073431601</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="1">
+        <v>21</v>
+      </c>
+      <c r="P47" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="1">
+        <f>100-P47</f>
+        <v>22</v>
+      </c>
+      <c r="R47" s="1">
+        <v>5.1010059999999999</v>
+      </c>
+      <c r="S47" s="1">
+        <v>9.8253601474948091</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>21</v>
+      </c>
+      <c r="P48">
+        <v>79</v>
+      </c>
+      <c r="Q48">
+        <f>100-P48</f>
+        <v>21</v>
+      </c>
+      <c r="R48">
+        <v>5.1766870000000003</v>
+      </c>
+      <c r="S48">
+        <v>10.549883055164599</v>
+      </c>
+    </row>
+    <row r="49" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49">
+        <v>21</v>
+      </c>
+      <c r="P49">
+        <v>80</v>
+      </c>
+      <c r="Q49">
+        <f>100-P49</f>
+        <v>20</v>
+      </c>
+      <c r="R49">
+        <v>5.0735060000000001</v>
+      </c>
+      <c r="S49">
+        <v>14.3199733172543</v>
+      </c>
+    </row>
+    <row r="53" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>67</v>
+      </c>
+      <c r="P53">
+        <v>20</v>
+      </c>
+      <c r="Q53">
+        <f>100-P53</f>
+        <v>80</v>
+      </c>
+      <c r="R53">
+        <v>4.6108339999999997</v>
+      </c>
+      <c r="S53">
+        <v>0.93373527411352097</v>
+      </c>
+    </row>
+    <row r="54" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>67</v>
+      </c>
+      <c r="P54">
+        <v>30</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54:Q63" si="9">100-P54</f>
+        <v>70</v>
+      </c>
+      <c r="R54">
+        <v>5.4909420000000004</v>
+      </c>
+      <c r="S54">
+        <v>0.91936023779731402</v>
+      </c>
+    </row>
+    <row r="55" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>67</v>
+      </c>
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <f>100-P55</f>
+        <v>60</v>
+      </c>
+      <c r="R55">
+        <v>5.3027069999999998</v>
+      </c>
+      <c r="S55">
+        <v>0.82539401545065505</v>
+      </c>
+    </row>
+    <row r="56" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>9</v>
+      </c>
+      <c r="O56">
+        <v>67</v>
+      </c>
+      <c r="P56">
+        <v>50</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="R56">
+        <v>5.4244450000000004</v>
+      </c>
+      <c r="S56">
+        <v>1.0469934304324999</v>
+      </c>
+    </row>
+    <row r="57" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57">
+        <v>67</v>
+      </c>
+      <c r="P57">
+        <v>60</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="R57">
+        <v>4.4565200000000003</v>
+      </c>
+      <c r="S57">
+        <v>0.77613825745051002</v>
+      </c>
+    </row>
+    <row r="58" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>9</v>
+      </c>
+      <c r="O58">
+        <v>67</v>
+      </c>
+      <c r="P58">
+        <v>70</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="R58">
+        <v>4.2989699999999997</v>
+      </c>
+      <c r="S58">
+        <v>1.7114258719405899</v>
+      </c>
+    </row>
+    <row r="59" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>9</v>
+      </c>
+      <c r="O59">
+        <v>67</v>
+      </c>
+      <c r="P59">
+        <v>80</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="R59">
+        <v>5.0313850000000002</v>
+      </c>
+      <c r="S59">
+        <v>3.24971676620381</v>
+      </c>
+    </row>
+    <row r="60" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>67</v>
+      </c>
+      <c r="P60">
+        <v>85</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="R60">
+        <v>5.2837909999999999</v>
+      </c>
+      <c r="S60">
+        <v>3.16824398744181</v>
+      </c>
+    </row>
+    <row r="61" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>9</v>
+      </c>
+      <c r="O61">
+        <v>67</v>
+      </c>
+      <c r="P61">
+        <v>87</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="R61">
+        <v>5.0242760000000004</v>
+      </c>
+      <c r="S61">
+        <v>4.5918585161555301</v>
+      </c>
+    </row>
+    <row r="62" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="1">
+        <v>67</v>
+      </c>
+      <c r="P62" s="1">
+        <v>88</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="R62" s="1">
+        <v>5.1768099999999997</v>
+      </c>
+      <c r="S62" s="1">
+        <v>4.8452502257911698</v>
+      </c>
+    </row>
+    <row r="63" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63">
+        <v>67</v>
+      </c>
+      <c r="P63">
+        <v>89</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="R63">
+        <v>4.1255280000000001</v>
+      </c>
+      <c r="S63">
+        <v>10.2001333564059</v>
+      </c>
+    </row>
+    <row r="64" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64">
+        <v>67</v>
+      </c>
+      <c r="P64">
+        <v>90</v>
+      </c>
+      <c r="Q64">
+        <f>100-P64</f>
+        <v>10</v>
+      </c>
+      <c r="R64">
+        <v>4.1121280000000002</v>
+      </c>
+      <c r="S64">
+        <v>28.014397210136899</v>
+      </c>
+    </row>
+    <row r="68" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>9</v>
+      </c>
+      <c r="O68">
+        <v>273</v>
+      </c>
+      <c r="P68">
+        <v>30</v>
+      </c>
+      <c r="Q68">
+        <f>100-P68</f>
+        <v>70</v>
+      </c>
+      <c r="R68">
+        <v>4.7129079999999997</v>
+      </c>
+      <c r="S68">
+        <v>1.1228442947705499</v>
+      </c>
+    </row>
+    <row r="69" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>9</v>
+      </c>
+      <c r="O69">
+        <v>273</v>
+      </c>
+      <c r="P69">
+        <v>40</v>
+      </c>
+      <c r="Q69">
+        <f>100-P69</f>
+        <v>60</v>
+      </c>
+      <c r="R69">
+        <v>5.3871890000000002</v>
+      </c>
+      <c r="S69">
+        <v>1.1951515114933999</v>
+      </c>
+    </row>
+    <row r="70" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>9</v>
+      </c>
+      <c r="O70">
+        <v>273</v>
+      </c>
+      <c r="P70">
+        <v>50</v>
+      </c>
+      <c r="Q70">
+        <f>100-P70</f>
+        <v>50</v>
+      </c>
+      <c r="R70">
+        <v>5.4421879999999998</v>
+      </c>
+      <c r="S70">
+        <v>2.61992975582397</v>
+      </c>
+    </row>
+    <row r="71" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>9</v>
+      </c>
+      <c r="O71">
+        <v>273</v>
+      </c>
+      <c r="P71">
+        <v>60</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71:Q75" si="10">100-P71</f>
+        <v>40</v>
+      </c>
+      <c r="R71">
+        <v>5.1775969999999996</v>
+      </c>
+      <c r="S71">
+        <v>6.2457105315647201</v>
+      </c>
+    </row>
+    <row r="72" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>9</v>
+      </c>
+      <c r="O72">
+        <v>273</v>
+      </c>
+      <c r="P72">
+        <v>70</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="R72">
+        <v>5.296907</v>
+      </c>
+      <c r="S72">
+        <v>9.7065036533056794</v>
+      </c>
+    </row>
+    <row r="73" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O73" s="1">
+        <v>273</v>
+      </c>
+      <c r="P73" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="R73" s="1">
+        <v>5.0749230000000001</v>
+      </c>
+      <c r="S73" s="1">
+        <v>8.91142816553171</v>
+      </c>
+    </row>
+    <row r="74" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>9</v>
+      </c>
+      <c r="O74">
+        <v>273</v>
+      </c>
+      <c r="P74">
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="R74">
+        <v>5.1788550000000004</v>
+      </c>
+      <c r="S74">
+        <v>14.236889424339999</v>
+      </c>
+    </row>
+    <row r="75" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O75">
+        <v>273</v>
+      </c>
+      <c r="P75">
+        <v>75</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="R75">
+        <v>4.4363099999999998</v>
+      </c>
+      <c r="S75">
+        <v>19.241247246239499</v>
       </c>
     </row>
   </sheetData>

--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77ABF6B-DAF4-49C9-AAC4-F8E9CECAC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761FA0D-9BDD-4AB7-AF13-B8811F510A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Seed 21" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -68,15 +69,48 @@
   <si>
     <t xml:space="preserve">Grey - Periodic </t>
   </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N pulled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N train </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black 2 </t>
+  </si>
+  <si>
+    <t>Note that for these tests, #fig.show for ease</t>
+  </si>
+  <si>
+    <t>Grey  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey 2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B5D8C9-EF3E-4709-AB98-C706ED400A04}">
   <dimension ref="B4:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S49" sqref="N39:S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,4 +2217,862 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953BCC28-49AB-4816-9D44-16BAEE3812B1}">
+  <dimension ref="B1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f>100-D4</f>
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>2.2910490000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.66784620677329598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>100-D5</f>
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>2.3217240000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.70853928775367303</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E13" si="0">100-D6</f>
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>2.2668650000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.25443899017931</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2.4100090000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.8569256294800001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>2.1210339999999999</v>
+      </c>
+      <c r="G8">
+        <v>2.8941255894790898</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>2.1560139999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.7754621558369199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.195262</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.8984338375273699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>2.1664560000000002</v>
+      </c>
+      <c r="G11">
+        <v>46.634121019323601</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>2.076549</v>
+      </c>
+      <c r="G12">
+        <v>44.095541417979597</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>2.1409410000000002</v>
+      </c>
+      <c r="G13">
+        <v>10.542290085167799</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f>100-D18</f>
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>2.4053390000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.52830822500687202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E28" si="1">100-D19</f>
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>2.434723</v>
+      </c>
+      <c r="G19">
+        <v>0.62709127986581303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>2.362838</v>
+      </c>
+      <c r="G20">
+        <v>0.86021845755637205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>2.2612510000000001</v>
+      </c>
+      <c r="G21">
+        <v>1.93820743014956</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>2.3081360000000002</v>
+      </c>
+      <c r="G22">
+        <v>2.7100245135262502</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>2.3968660000000002</v>
+      </c>
+      <c r="G23">
+        <v>4.5368769845748096</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>2.4383810000000001</v>
+      </c>
+      <c r="G24">
+        <v>6.0650529803933599</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>2.4409380000000001</v>
+      </c>
+      <c r="G25">
+        <v>6.4974052559889</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>2.1784599999999998</v>
+      </c>
+      <c r="G26">
+        <v>6.22184515214418</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.1987040000000002</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9.2652499971129298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2.2487200000000001</v>
+      </c>
+      <c r="G28">
+        <v>29.8300969934748</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <f>100-D33</f>
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>4.7831489999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.99760904681600104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E36" si="2">100-D34</f>
+        <v>70</v>
+      </c>
+      <c r="F34">
+        <v>4.5763590000000001</v>
+      </c>
+      <c r="G34">
+        <v>1.0065346515301701</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>5.4477669999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.89126402988916698</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>5.7633320000000001</v>
+      </c>
+      <c r="G36">
+        <v>2.37809584047148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <f>100-D37</f>
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>5.2267419999999998</v>
+      </c>
+      <c r="G37">
+        <v>3.1265392961331799</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <f>100-D38</f>
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>5.1972909999999999</v>
+      </c>
+      <c r="G38">
+        <v>6.1579006351889296</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <f>100-D39</f>
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>5.1765559999999997</v>
+      </c>
+      <c r="G39">
+        <v>7.2529884583681898</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <f>100-D40</f>
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>5.114509</v>
+      </c>
+      <c r="G40">
+        <v>9.0335425073431601</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1">
+        <v>78</v>
+      </c>
+      <c r="E41" s="1">
+        <f>100-D41</f>
+        <v>22</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.1010059999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9.8253601474948091</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <f>100-D42</f>
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>5.1766870000000003</v>
+      </c>
+      <c r="G42">
+        <v>10.549883055164599</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <f>100-D43</f>
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>5.0735060000000001</v>
+      </c>
+      <c r="G43">
+        <v>14.3199733172543</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <f>100-D48</f>
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>3.462399</v>
+      </c>
+      <c r="G48">
+        <v>1.1302268228424199</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E53" si="3">100-D49</f>
+        <v>70</v>
+      </c>
+      <c r="F49">
+        <v>3.419816</v>
+      </c>
+      <c r="G49">
+        <v>1.27988138200882</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>3.5066389999999998</v>
+      </c>
+      <c r="G50">
+        <v>1.1395179678534499</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>3.2713909999999999</v>
+      </c>
+      <c r="G51">
+        <v>2.3931083798284098</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>60</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761FA0D-9BDD-4AB7-AF13-B8811F510A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D676264-4384-4774-BF01-9F3FB8DCD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Seed 21" sheetId="2" r:id="rId2"/>
+    <sheet name="First attempt" sheetId="1" r:id="rId1"/>
+    <sheet name="DO NOT USE - Seed 21" sheetId="2" r:id="rId2"/>
+    <sheet name="Grid Tests" sheetId="3" r:id="rId3"/>
+    <sheet name="Strip Tests" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="26">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -91,17 +92,38 @@
     <t>Note that for these tests, #fig.show for ease</t>
   </si>
   <si>
+    <t>Grey 2</t>
+  </si>
+  <si>
     <t>Grey  1</t>
   </si>
   <si>
     <t xml:space="preserve">Grey 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strip % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot and gpu turned off </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +133,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,9 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +512,7 @@
   <dimension ref="B4:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S49" sqref="N39:S49"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1687,7 @@
         <v>60</v>
       </c>
       <c r="Q43">
-        <f>100-P43</f>
+        <f t="shared" ref="Q43:Q49" si="9">100-P43</f>
         <v>40</v>
       </c>
       <c r="R43">
@@ -1678,7 +1708,7 @@
         <v>70</v>
       </c>
       <c r="Q44">
-        <f>100-P44</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="R44">
@@ -1699,7 +1729,7 @@
         <v>75</v>
       </c>
       <c r="Q45">
-        <f>100-P45</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="R45">
@@ -1720,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="Q46">
-        <f>100-P46</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="R46">
@@ -1741,7 +1771,7 @@
         <v>78</v>
       </c>
       <c r="Q47" s="1">
-        <f>100-P47</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="R47" s="1">
@@ -1762,7 +1792,7 @@
         <v>79</v>
       </c>
       <c r="Q48">
-        <f>100-P48</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="R48">
@@ -1783,7 +1813,7 @@
         <v>80</v>
       </c>
       <c r="Q49">
-        <f>100-P49</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="R49">
@@ -1825,7 +1855,7 @@
         <v>30</v>
       </c>
       <c r="Q54">
-        <f t="shared" ref="Q54:Q63" si="9">100-P54</f>
+        <f t="shared" ref="Q54:Q63" si="10">100-P54</f>
         <v>70</v>
       </c>
       <c r="R54">
@@ -1867,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="R56">
@@ -1888,7 +1918,7 @@
         <v>60</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="R57">
@@ -1909,7 +1939,7 @@
         <v>70</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="R58">
@@ -1930,7 +1960,7 @@
         <v>80</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="R59">
@@ -1951,7 +1981,7 @@
         <v>85</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="R60">
@@ -1972,7 +2002,7 @@
         <v>87</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="R61">
@@ -1993,7 +2023,7 @@
         <v>88</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="R62" s="1">
@@ -2014,7 +2044,7 @@
         <v>89</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="R63">
@@ -2119,7 +2149,7 @@
         <v>60</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:Q75" si="10">100-P71</f>
+        <f t="shared" ref="Q71:Q75" si="11">100-P71</f>
         <v>40</v>
       </c>
       <c r="R71">
@@ -2140,7 +2170,7 @@
         <v>70</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="R72">
@@ -2161,7 +2191,7 @@
         <v>72</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="R73" s="1">
@@ -2182,7 +2212,7 @@
         <v>73</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="R74">
@@ -2203,7 +2233,7 @@
         <v>75</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="R75">
@@ -2223,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953BCC28-49AB-4816-9D44-16BAEE3812B1}">
   <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2771,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -2762,7 +2792,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>21</v>
@@ -2783,7 +2813,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>21</v>
@@ -2804,7 +2834,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>21</v>
@@ -2825,7 +2855,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>21</v>
@@ -2834,7 +2864,7 @@
         <v>60</v>
       </c>
       <c r="E37">
-        <f>100-D37</f>
+        <f t="shared" ref="E37:E43" si="3">100-D37</f>
         <v>40</v>
       </c>
       <c r="F37">
@@ -2846,7 +2876,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>21</v>
@@ -2855,7 +2885,7 @@
         <v>70</v>
       </c>
       <c r="E38">
-        <f>100-D38</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F38">
@@ -2867,7 +2897,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>21</v>
@@ -2876,7 +2906,7 @@
         <v>75</v>
       </c>
       <c r="E39">
-        <f>100-D39</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F39">
@@ -2888,7 +2918,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>21</v>
@@ -2897,7 +2927,7 @@
         <v>77</v>
       </c>
       <c r="E40">
-        <f>100-D40</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="F40">
@@ -2909,7 +2939,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>21</v>
@@ -2918,7 +2948,7 @@
         <v>78</v>
       </c>
       <c r="E41" s="1">
-        <f>100-D41</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="F41" s="1">
@@ -2930,7 +2960,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>21</v>
@@ -2939,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="E42">
-        <f>100-D42</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F42">
@@ -2951,7 +2981,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>21</v>
@@ -2960,7 +2990,7 @@
         <v>80</v>
       </c>
       <c r="E43">
-        <f>100-D43</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F43">
@@ -2992,7 +3022,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -3016,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E53" si="3">100-D49</f>
+        <f t="shared" ref="E49:E53" si="4">100-D49</f>
         <v>70</v>
       </c>
       <c r="F49">
@@ -3031,7 +3061,7 @@
         <v>40</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F50">
@@ -3046,7 +3076,7 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F51">
@@ -3061,13 +3091,13 @@
         <v>60</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -3075,4 +3105,3887 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC5EB5-F9B5-4507-9399-F5CCD7ABE125}">
+  <dimension ref="B1:Y59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f>100-D4</f>
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>2.4461200000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.63368795318416704</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>67</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <f>100-M4</f>
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>2.7151329999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.49376685479841498</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4">
+        <v>273</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <f>100-V4</f>
+        <v>80</v>
+      </c>
+      <c r="X4">
+        <v>2.3404889999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.543547971063567</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>100-D5</f>
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>2.291328</v>
+      </c>
+      <c r="G5">
+        <v>0.71201907438757295</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>67</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <f>100-M5</f>
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>2.3480889999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.78203022423883695</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <v>273</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <f>100-V5</f>
+        <v>70</v>
+      </c>
+      <c r="X5">
+        <v>2.3816139999999999</v>
+      </c>
+      <c r="Y5">
+        <v>0.67529592411352901</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E10" si="0">100-D6</f>
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>2.2570079999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.1888248275256701</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>67</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N13" si="1">100-M6</f>
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>2.2376480000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.61459446529834605</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6">
+        <v>273</v>
+      </c>
+      <c r="V6">
+        <v>40</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W12" si="2">100-V6</f>
+        <v>60</v>
+      </c>
+      <c r="X6">
+        <v>2.38795</v>
+      </c>
+      <c r="Y6">
+        <v>0.73474851442276001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2.2718600000000002</v>
+      </c>
+      <c r="G7">
+        <v>2.7422201816044498</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>67</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>2.2148750000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.88125723277257495</v>
+      </c>
+      <c r="T7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7">
+        <v>273</v>
+      </c>
+      <c r="V7">
+        <v>50</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="X7">
+        <v>2.3543590000000001</v>
+      </c>
+      <c r="Y7">
+        <v>1.3456355519582099</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>2.168139</v>
+      </c>
+      <c r="G8">
+        <v>2.9688156610003098</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>2.2286570000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.8920866140442101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8">
+        <v>273</v>
+      </c>
+      <c r="V8">
+        <v>60</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <v>2.2706759999999999</v>
+      </c>
+      <c r="Y8">
+        <v>3.9272264141657902</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.4482300000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9.9145202682726694</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>67</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>2.231684</v>
+      </c>
+      <c r="P9">
+        <v>3.2622676807318798</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <v>273</v>
+      </c>
+      <c r="V9">
+        <v>65</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>2.0244870000000001</v>
+      </c>
+      <c r="Y9">
+        <v>4.9272993209712803</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>2.173753</v>
+      </c>
+      <c r="G10">
+        <v>10.833710911661701</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>80</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>2.12906</v>
+      </c>
+      <c r="P10">
+        <v>5.1993739088348701</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1">
+        <v>273</v>
+      </c>
+      <c r="V10" s="1">
+        <v>68</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.1533929999999999</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5.5718292578819204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>67</v>
+      </c>
+      <c r="M11">
+        <v>83</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>2.1469969999999998</v>
+      </c>
+      <c r="P11">
+        <v>6.5517722164107104</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <v>273</v>
+      </c>
+      <c r="V11">
+        <v>69</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X11">
+        <v>2.1032489999999999</v>
+      </c>
+      <c r="Y11">
+        <v>53.386921581933201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="1">
+        <v>67</v>
+      </c>
+      <c r="M12" s="1">
+        <v>84</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.1391879999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8.9009172058397397</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12">
+        <v>273</v>
+      </c>
+      <c r="V12">
+        <v>70</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X12">
+        <v>2.2884139999999999</v>
+      </c>
+      <c r="Y12">
+        <v>54.185585517649201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>67</v>
+      </c>
+      <c r="M13">
+        <v>85</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>2.1195750000000002</v>
+      </c>
+      <c r="P13">
+        <v>10.648840293035301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <f>100-D15</f>
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>2.7858269999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.60796332615892701</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E25" si="3">100-D16</f>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>3.0220030000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.64230188209403505</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>2.484645</v>
+      </c>
+      <c r="G17">
+        <v>0.80941501011100203</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>2.3581660000000002</v>
+      </c>
+      <c r="G18">
+        <v>1.98001676789303</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>67</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <f>100-M18</f>
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>2.6580300000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.55638841352161095</v>
+      </c>
+      <c r="T18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18">
+        <v>273</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
+        <f>100-V18</f>
+        <v>80</v>
+      </c>
+      <c r="X18">
+        <v>2.6580699999999999</v>
+      </c>
+      <c r="Y18">
+        <v>0.530325512643817</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>2.3526009999999999</v>
+      </c>
+      <c r="G19">
+        <v>2.8515777962951998</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>67</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <f>100-M19</f>
+        <v>70</v>
+      </c>
+      <c r="O19">
+        <v>2.4739040000000001</v>
+      </c>
+      <c r="P19">
+        <v>0.67793789957805495</v>
+      </c>
+      <c r="T19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>273</v>
+      </c>
+      <c r="V19">
+        <v>30</v>
+      </c>
+      <c r="W19">
+        <f>100-V19</f>
+        <v>70</v>
+      </c>
+      <c r="X19">
+        <v>2.3488389999999999</v>
+      </c>
+      <c r="Y19">
+        <v>0.64510172994230697</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>2.3585569999999998</v>
+      </c>
+      <c r="G20">
+        <v>5.1631750580128202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>67</v>
+      </c>
+      <c r="M20">
+        <v>40</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N28" si="4">100-M20</f>
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>2.8253740000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.62945083118975997</v>
+      </c>
+      <c r="T20" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>273</v>
+      </c>
+      <c r="V20">
+        <v>40</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W28" si="5">100-V20</f>
+        <v>60</v>
+      </c>
+      <c r="X20">
+        <v>2.3289810000000002</v>
+      </c>
+      <c r="Y20">
+        <v>0.72991927286430203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>2.2627169999999999</v>
+      </c>
+      <c r="G21">
+        <v>6.6649530258232703</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21">
+        <v>67</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="O21">
+        <v>2.380198</v>
+      </c>
+      <c r="P21">
+        <v>0.75184203423080698</v>
+      </c>
+      <c r="T21" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21">
+        <v>273</v>
+      </c>
+      <c r="V21">
+        <v>50</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="X21">
+        <v>2.26919</v>
+      </c>
+      <c r="Y21">
+        <v>0.99828231746276197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>2.2707579999999998</v>
+      </c>
+      <c r="G22">
+        <v>7.3075510130203103</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>67</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>2.241565</v>
+      </c>
+      <c r="P22">
+        <v>0.98757626711062996</v>
+      </c>
+      <c r="T22" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>273</v>
+      </c>
+      <c r="V22">
+        <v>60</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="X22">
+        <v>2.1642169999999998</v>
+      </c>
+      <c r="Y22">
+        <v>1.2852925920604701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2.300834</v>
+      </c>
+      <c r="G23">
+        <v>7.13751486235308</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23">
+        <v>67</v>
+      </c>
+      <c r="M23">
+        <v>70</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>2.618817</v>
+      </c>
+      <c r="P23">
+        <v>1.17542499023473</v>
+      </c>
+      <c r="T23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23">
+        <v>273</v>
+      </c>
+      <c r="V23">
+        <v>70</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="X23">
+        <v>2.218067</v>
+      </c>
+      <c r="Y23">
+        <v>6.0988842115736901</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.3463250000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9.5532534249011807</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>67</v>
+      </c>
+      <c r="M24">
+        <v>80</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O24">
+        <v>2.3168959999999998</v>
+      </c>
+      <c r="P24">
+        <v>9.0568929458186105</v>
+      </c>
+      <c r="T24" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24">
+        <v>273</v>
+      </c>
+      <c r="V24">
+        <v>80</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <v>2.1122399999999999</v>
+      </c>
+      <c r="Y24">
+        <v>3.95479675415329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>2.2554500000000002</v>
+      </c>
+      <c r="G25">
+        <v>31.202424463069999</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>67</v>
+      </c>
+      <c r="M25">
+        <v>81</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>2.2389350000000001</v>
+      </c>
+      <c r="P25">
+        <v>8.3430789248094293</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25" s="1">
+        <v>273</v>
+      </c>
+      <c r="V25" s="1">
+        <v>81</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="X25" s="1">
+        <v>2.2253669999999999</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>5.6524810244778303</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1">
+        <v>67</v>
+      </c>
+      <c r="M26" s="1">
+        <v>82</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.325196</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9.1928674219226192</v>
+      </c>
+      <c r="T26" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26">
+        <v>273</v>
+      </c>
+      <c r="V26">
+        <v>82</v>
+      </c>
+      <c r="W26">
+        <f>100-V26</f>
+        <v>18</v>
+      </c>
+      <c r="X26">
+        <v>2.166226</v>
+      </c>
+      <c r="Y26">
+        <v>10.873267330330499</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27">
+        <v>67</v>
+      </c>
+      <c r="M27">
+        <v>83</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <v>2.289358</v>
+      </c>
+      <c r="P27">
+        <v>10.3431004270098</v>
+      </c>
+      <c r="T27" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27">
+        <v>273</v>
+      </c>
+      <c r="V27">
+        <v>85</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>2.032724</v>
+      </c>
+      <c r="Y27">
+        <v>23.590467780041099</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>67</v>
+      </c>
+      <c r="M28">
+        <v>85</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>2.283909</v>
+      </c>
+      <c r="P28">
+        <v>79.859640984276396</v>
+      </c>
+      <c r="T28" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <v>273</v>
+      </c>
+      <c r="V28">
+        <v>90</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>2.1088170000000002</v>
+      </c>
+      <c r="Y28">
+        <v>28.571024821297499</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f>100-D30</f>
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>4.5661500000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.97048664618083902</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E33" si="6">100-D31</f>
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>4.6794960000000003</v>
+      </c>
+      <c r="G31">
+        <v>1.0574103003160999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>4.2394540000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.92636514094550604</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" t="s">
+        <v>11</v>
+      </c>
+      <c r="W32" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>4.2323620000000002</v>
+      </c>
+      <c r="G33">
+        <v>3.3251278875336698</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>67</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <f>100-M33</f>
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>4.3293699999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.95618771535681202</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <v>273</v>
+      </c>
+      <c r="V33">
+        <v>20</v>
+      </c>
+      <c r="W33">
+        <f>100-V33</f>
+        <v>80</v>
+      </c>
+      <c r="X33">
+        <v>4.2464230000000001</v>
+      </c>
+      <c r="Y33">
+        <v>1.1044102724714899</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E39" si="7">100-D34</f>
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>4.5566469999999999</v>
+      </c>
+      <c r="G34">
+        <v>3.2960277051746201</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>67</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <f>100-M34</f>
+        <v>70</v>
+      </c>
+      <c r="O34">
+        <v>4.3666609999999997</v>
+      </c>
+      <c r="P34">
+        <v>0.95603857788380497</v>
+      </c>
+      <c r="T34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>273</v>
+      </c>
+      <c r="V34">
+        <v>30</v>
+      </c>
+      <c r="W34">
+        <f>100-V34</f>
+        <v>70</v>
+      </c>
+      <c r="X34">
+        <v>4.07423</v>
+      </c>
+      <c r="Y34">
+        <v>1.2622524763839</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>4.2445830000000004</v>
+      </c>
+      <c r="G35">
+        <v>6.1908994740970096</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>67</v>
+      </c>
+      <c r="M35">
+        <v>40</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N44" si="8">100-M35</f>
+        <v>60</v>
+      </c>
+      <c r="O35">
+        <v>4.3353630000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.82669617948172902</v>
+      </c>
+      <c r="T35" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>273</v>
+      </c>
+      <c r="V35">
+        <v>40</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W41" si="9">100-V35</f>
+        <v>60</v>
+      </c>
+      <c r="X35">
+        <v>4.1482510000000001</v>
+      </c>
+      <c r="Y35">
+        <v>1.0948275269832399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>4.0320790000000004</v>
+      </c>
+      <c r="G36">
+        <v>7.8574003481125301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>67</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="O36">
+        <v>4.2833180000000004</v>
+      </c>
+      <c r="P36">
+        <v>1.0753106248670301</v>
+      </c>
+      <c r="T36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <v>273</v>
+      </c>
+      <c r="V36">
+        <v>50</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="X36">
+        <v>3.929942</v>
+      </c>
+      <c r="Y36">
+        <v>2.5861346649227501</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.1710250000000002</v>
+      </c>
+      <c r="G37" s="1">
+        <v>9.1426031896147695</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>67</v>
+      </c>
+      <c r="M37">
+        <v>60</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="O37">
+        <v>4.1439399999999997</v>
+      </c>
+      <c r="P37">
+        <v>0.80735943992735404</v>
+      </c>
+      <c r="T37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37">
+        <v>273</v>
+      </c>
+      <c r="V37">
+        <v>60</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="X37">
+        <v>3.7830430000000002</v>
+      </c>
+      <c r="Y37">
+        <v>6.2726486404513802</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>4.2286770000000002</v>
+      </c>
+      <c r="G38">
+        <v>10.2488968671561</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>67</v>
+      </c>
+      <c r="M38">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="O38">
+        <v>4.3980350000000001</v>
+      </c>
+      <c r="P38">
+        <v>1.7600181761356899</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="1">
+        <v>273</v>
+      </c>
+      <c r="V38" s="1">
+        <v>70</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="X38" s="1">
+        <v>3.9475859999999998</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>9.3023369943198695</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>3.9727800000000002</v>
+      </c>
+      <c r="G39">
+        <v>14.615728955242201</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>67</v>
+      </c>
+      <c r="M39">
+        <v>80</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <v>4.0491979999999996</v>
+      </c>
+      <c r="P39">
+        <v>2.99855621318875</v>
+      </c>
+      <c r="T39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39">
+        <v>273</v>
+      </c>
+      <c r="V39">
+        <v>71</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="X39">
+        <v>4.1091069999999998</v>
+      </c>
+      <c r="Y39">
+        <v>14.592864973237299</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>67</v>
+      </c>
+      <c r="M40">
+        <v>85</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <v>4.1886599999999996</v>
+      </c>
+      <c r="P40">
+        <v>3.2973837793274301</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>273</v>
+      </c>
+      <c r="V40" s="2">
+        <v>72</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="X40" s="2">
+        <v>3.8065709999999999</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>14.673985196179</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>67</v>
+      </c>
+      <c r="M41">
+        <v>87</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="O41">
+        <v>3.8084169999999999</v>
+      </c>
+      <c r="P41">
+        <v>4.8744357255642603</v>
+      </c>
+      <c r="T41" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41">
+        <v>273</v>
+      </c>
+      <c r="V41">
+        <v>75</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="X41">
+        <v>3.8221780000000001</v>
+      </c>
+      <c r="Y41">
+        <v>19.776639149117798</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="3">
+        <v>67</v>
+      </c>
+      <c r="M42" s="3">
+        <v>88</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3.8766889999999998</v>
+      </c>
+      <c r="P42" s="3">
+        <v>4.8733845302284102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>67</v>
+      </c>
+      <c r="M43">
+        <v>89</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="O43">
+        <v>3.8752309999999999</v>
+      </c>
+      <c r="P43">
+        <v>10.1692586239009</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <f>100-D44</f>
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>3.798006</v>
+      </c>
+      <c r="G44">
+        <v>1.09623238473411</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>67</v>
+      </c>
+      <c r="M44">
+        <v>90</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>4.5183850000000003</v>
+      </c>
+      <c r="P44">
+        <v>26.312339557995202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E52" si="10">100-D45</f>
+        <v>70</v>
+      </c>
+      <c r="F45">
+        <v>3.6165859999999999</v>
+      </c>
+      <c r="G45">
+        <v>1.1204994678468101</v>
+      </c>
+      <c r="T45" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>3.4993479999999999</v>
+      </c>
+      <c r="G46">
+        <v>1.1924368073990499</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46">
+        <v>273</v>
+      </c>
+      <c r="V46">
+        <v>20</v>
+      </c>
+      <c r="W46">
+        <f>100-V46</f>
+        <v>80</v>
+      </c>
+      <c r="X46">
+        <v>3.419454</v>
+      </c>
+      <c r="Y46">
+        <v>1.0507836687630401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <f>100-D47</f>
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>3.7071260000000001</v>
+      </c>
+      <c r="G47">
+        <v>2.2542370432974401</v>
+      </c>
+      <c r="T47" t="s">
+        <v>17</v>
+      </c>
+      <c r="U47">
+        <v>273</v>
+      </c>
+      <c r="V47">
+        <v>30</v>
+      </c>
+      <c r="W47">
+        <f>100-V47</f>
+        <v>70</v>
+      </c>
+      <c r="X47">
+        <v>3.416671</v>
+      </c>
+      <c r="Y47">
+        <v>1.2168178509259799</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>3.4910459999999999</v>
+      </c>
+      <c r="G48">
+        <v>7.4050337506286601</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>17</v>
+      </c>
+      <c r="U48">
+        <v>273</v>
+      </c>
+      <c r="V48">
+        <v>40</v>
+      </c>
+      <c r="W48">
+        <f t="shared" ref="W48:W52" si="11">100-V48</f>
+        <v>60</v>
+      </c>
+      <c r="X48">
+        <v>3.3503699999999998</v>
+      </c>
+      <c r="Y48">
+        <v>1.1666345867289301</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1">
+        <v>70</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3.3725719999999999</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9.7188957373631695</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>67</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <f>100-M49</f>
+        <v>80</v>
+      </c>
+      <c r="O49">
+        <v>3.5900850000000002</v>
+      </c>
+      <c r="P49">
+        <v>0.99221001257581498</v>
+      </c>
+      <c r="T49" t="s">
+        <v>17</v>
+      </c>
+      <c r="U49">
+        <v>273</v>
+      </c>
+      <c r="V49">
+        <v>50</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="X49">
+        <v>3.3185470000000001</v>
+      </c>
+      <c r="Y49">
+        <v>2.6568295721354098</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>3.6360969999999999</v>
+      </c>
+      <c r="G50">
+        <v>13.104710697468899</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50">
+        <v>67</v>
+      </c>
+      <c r="M50">
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <f>100-M50</f>
+        <v>70</v>
+      </c>
+      <c r="O50">
+        <v>3.4574289999999999</v>
+      </c>
+      <c r="P50">
+        <v>1.06306059510761</v>
+      </c>
+      <c r="T50" t="s">
+        <v>17</v>
+      </c>
+      <c r="U50">
+        <v>273</v>
+      </c>
+      <c r="V50">
+        <v>60</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="X50">
+        <v>3.6765949999999998</v>
+      </c>
+      <c r="Y50">
+        <v>5.64177822210236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>3.2246570000000001</v>
+      </c>
+      <c r="G51">
+        <v>11.0358307726822</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <v>67</v>
+      </c>
+      <c r="M51">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N59" si="12">100-M51</f>
+        <v>60</v>
+      </c>
+      <c r="O51">
+        <v>3.428906</v>
+      </c>
+      <c r="P51">
+        <v>0.79695308624105499</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U51" s="1">
+        <v>273</v>
+      </c>
+      <c r="V51" s="1">
+        <v>69</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="X51" s="1">
+        <v>3.291188</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>8.2220864983714801</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>3.5051040000000002</v>
+      </c>
+      <c r="G52">
+        <v>16.0345126014893</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>67</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>3.3142390000000002</v>
+      </c>
+      <c r="P52">
+        <v>1.22684428995223</v>
+      </c>
+      <c r="T52" t="s">
+        <v>17</v>
+      </c>
+      <c r="U52">
+        <v>273</v>
+      </c>
+      <c r="V52">
+        <v>70</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="X52">
+        <v>3.2420309999999999</v>
+      </c>
+      <c r="Y52">
+        <v>10.429361942148599</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>67</v>
+      </c>
+      <c r="M53">
+        <v>60</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="O53">
+        <v>3.2831130000000002</v>
+      </c>
+      <c r="P53">
+        <v>0.72629050415346597</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>67</v>
+      </c>
+      <c r="M54">
+        <v>70</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="O54">
+        <v>3.205276</v>
+      </c>
+      <c r="P54">
+        <v>1.77864123292764</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55">
+        <v>67</v>
+      </c>
+      <c r="M55">
+        <v>80</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="O55">
+        <v>3.143796</v>
+      </c>
+      <c r="P55">
+        <v>3.55566874626177</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56">
+        <v>67</v>
+      </c>
+      <c r="M56">
+        <v>85</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="O56">
+        <v>3.2398020000000001</v>
+      </c>
+      <c r="P56">
+        <v>3.2551129895411499</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="1">
+        <v>67</v>
+      </c>
+      <c r="M57" s="1">
+        <v>88</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.1689750000000001</v>
+      </c>
+      <c r="P57" s="1">
+        <v>6.5240588850800298</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>67</v>
+      </c>
+      <c r="M58">
+        <v>89</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <v>3.3983789999999998</v>
+      </c>
+      <c r="P58">
+        <v>10.9767886116438</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59">
+        <v>67</v>
+      </c>
+      <c r="M59">
+        <v>90</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>3.175011</v>
+      </c>
+      <c r="P59">
+        <v>26.092171450244301</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC8CA0-6835-4BE7-B60D-A90C6C111881}">
+  <dimension ref="C2:Z34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f>E5*10</f>
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>27.067644533518202</v>
+      </c>
+      <c r="H5">
+        <v>2.4413990000000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>897</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <f>N5*10</f>
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>27.905696392471199</v>
+      </c>
+      <c r="Q5">
+        <v>2.358079</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <v>222</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <f>W5*10</f>
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>34.542869103129398</v>
+      </c>
+      <c r="Z5">
+        <v>2.494653</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="0">E6*10</f>
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>25.065139891208201</v>
+      </c>
+      <c r="H6">
+        <v>3.2889590000000002</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>897</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O10" si="1">N6*10</f>
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>31.035007971227301</v>
+      </c>
+      <c r="Q6">
+        <v>2.8756140000000001</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <v>222</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X10" si="2">W6*10</f>
+        <v>200</v>
+      </c>
+      <c r="Y6">
+        <v>29.350406033471</v>
+      </c>
+      <c r="Z6">
+        <v>2.968601</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>26.040091000986699</v>
+      </c>
+      <c r="H7">
+        <v>3.6949800000000002</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>897</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="P7">
+        <v>25.215290780456801</v>
+      </c>
+      <c r="Q7">
+        <v>3.6854819999999999</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7">
+        <v>222</v>
+      </c>
+      <c r="W7">
+        <v>30</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="Y7">
+        <v>25.0274449764315</v>
+      </c>
+      <c r="Z7">
+        <v>3.9148209999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G8">
+        <v>22.4279669536363</v>
+      </c>
+      <c r="H8">
+        <v>4.6805760000000003</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>897</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="P8">
+        <v>23.791903155583601</v>
+      </c>
+      <c r="Q8">
+        <v>4.6287760000000002</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>222</v>
+      </c>
+      <c r="W8">
+        <v>40</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="Y8">
+        <v>24.158735130023398</v>
+      </c>
+      <c r="Z8">
+        <v>4.6456569999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>14.706233178372701</v>
+      </c>
+      <c r="H9">
+        <v>6.7667919999999997</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>897</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="P9">
+        <v>10.5884916115577</v>
+      </c>
+      <c r="Q9">
+        <v>6.3287659999999999</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>222</v>
+      </c>
+      <c r="W9">
+        <v>50</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="Y9">
+        <v>11.138059249209199</v>
+      </c>
+      <c r="Z9">
+        <v>6.9251709999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.6381415644590804</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.4595520000000004</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1">
+        <v>897</v>
+      </c>
+      <c r="N10" s="1">
+        <v>60</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.11634455167294</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>8.4073530000000005</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="1">
+        <v>222</v>
+      </c>
+      <c r="W10" s="1">
+        <v>60</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.3926926307742598</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>10.012090000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>E15*10</f>
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>131.92761749275101</v>
+      </c>
+      <c r="H15">
+        <v>2.4925329999999999</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>897</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <f>N15*10</f>
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>162.42293833171701</v>
+      </c>
+      <c r="Q15">
+        <v>2.507701</v>
+      </c>
+      <c r="U15" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15">
+        <v>222</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <f>W15*10</f>
+        <v>100</v>
+      </c>
+      <c r="Y15">
+        <v>166.02296302304299</v>
+      </c>
+      <c r="Z15">
+        <v>2.7786970000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F20" si="3">E16*10</f>
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>60.218836903454097</v>
+      </c>
+      <c r="H16">
+        <v>2.9884019999999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>897</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O20" si="4">N16*10</f>
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>96.058627624995097</v>
+      </c>
+      <c r="Q16">
+        <v>3.068695</v>
+      </c>
+      <c r="U16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <v>222</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X20" si="5">W16*10</f>
+        <v>200</v>
+      </c>
+      <c r="Y16">
+        <v>103.561007845657</v>
+      </c>
+      <c r="Z16">
+        <v>2.9112749999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G17">
+        <v>36.570089432438103</v>
+      </c>
+      <c r="H17">
+        <v>3.7124990000000002</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>897</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="P17">
+        <v>44.219263578304997</v>
+      </c>
+      <c r="Q17">
+        <v>3.956874</v>
+      </c>
+      <c r="U17" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>222</v>
+      </c>
+      <c r="W17">
+        <v>30</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="Y17">
+        <v>24.1356326143096</v>
+      </c>
+      <c r="Z17">
+        <v>3.726909</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="G18">
+        <v>82.169498699368106</v>
+      </c>
+      <c r="H18">
+        <v>4.7797409999999996</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>897</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="P18">
+        <v>32.777738925899001</v>
+      </c>
+      <c r="Q18">
+        <v>4.7163149999999998</v>
+      </c>
+      <c r="U18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>222</v>
+      </c>
+      <c r="W18">
+        <v>40</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="Y18">
+        <v>27.229477707662401</v>
+      </c>
+      <c r="Z18">
+        <v>4.7542780000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>37.995272424315402</v>
+      </c>
+      <c r="H19">
+        <v>6.182734</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>897</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="P19">
+        <v>25.503647118140901</v>
+      </c>
+      <c r="Q19">
+        <v>6.2737170000000004</v>
+      </c>
+      <c r="U19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>222</v>
+      </c>
+      <c r="W19">
+        <v>50</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="Y19">
+        <v>18.9943607818097</v>
+      </c>
+      <c r="Z19">
+        <v>6.3167879999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.8553692018515999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.3935040000000001</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1">
+        <v>897</v>
+      </c>
+      <c r="N20" s="1">
+        <v>60</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="P20" s="1">
+        <v>6.0325239234353596</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>8.5444879999999994</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="1">
+        <v>222</v>
+      </c>
+      <c r="W20" s="1">
+        <v>60</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>8.1366241544196907</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>8.6967400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <f>E25*10</f>
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>22.6636910521263</v>
+      </c>
+      <c r="H25">
+        <v>4.2159069999999996</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>897</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <f>N25*10</f>
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>27.096439688693302</v>
+      </c>
+      <c r="Q25">
+        <v>4.5669490000000001</v>
+      </c>
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25">
+        <v>222</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <f>W25*10</f>
+        <v>100</v>
+      </c>
+      <c r="Y25">
+        <v>23.349618817979199</v>
+      </c>
+      <c r="Z25">
+        <v>4.5942499999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F28" si="6">E26*10</f>
+        <v>200</v>
+      </c>
+      <c r="G26">
+        <v>12.168630425688701</v>
+      </c>
+      <c r="H26">
+        <v>5.576975</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>897</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O28" si="7">N26*10</f>
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>15.307652480826601</v>
+      </c>
+      <c r="Q26">
+        <v>5.6652430000000003</v>
+      </c>
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <v>222</v>
+      </c>
+      <c r="W26">
+        <v>20</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X28" si="8">W26*10</f>
+        <v>200</v>
+      </c>
+      <c r="Y26">
+        <v>11.4938022749695</v>
+      </c>
+      <c r="Z26">
+        <v>5.8647</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>11.8590753482246</v>
+      </c>
+      <c r="H27">
+        <v>6.9669970000000001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>897</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="P27">
+        <v>10.881758671678</v>
+      </c>
+      <c r="Q27">
+        <v>7.5960400000000003</v>
+      </c>
+      <c r="U27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27">
+        <v>222</v>
+      </c>
+      <c r="W27">
+        <v>30</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="Y27">
+        <v>14.3584305208249</v>
+      </c>
+      <c r="Z27">
+        <v>7.2149549999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.7045704149508003</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9.2710620000000006</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1">
+        <v>897</v>
+      </c>
+      <c r="N28" s="1">
+        <v>40</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="P28" s="1">
+        <v>6.8181044849883303</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>9.1190800000000003</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>222</v>
+      </c>
+      <c r="W28" s="1">
+        <v>40</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>7.5177077103716199</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>9.3749260000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <f>E33*10</f>
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>17.437428729790199</v>
+      </c>
+      <c r="H33">
+        <v>3.758569</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33">
+        <v>897</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <f>N33*10</f>
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>22.444398110988899</v>
+      </c>
+      <c r="Q33">
+        <v>3.7390430000000001</v>
+      </c>
+      <c r="U33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V33">
+        <v>222</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <f>W33*10</f>
+        <v>100</v>
+      </c>
+      <c r="Y33">
+        <v>27.804868078970799</v>
+      </c>
+      <c r="Z33">
+        <v>3.7979180000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F36" si="9">E34*10</f>
+        <v>200</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.44747094780893</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.5261129999999996</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="1">
+        <v>897</v>
+      </c>
+      <c r="N34" s="1">
+        <v>20</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" ref="O34" si="10">N34*10</f>
+        <v>200</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2.1110882277136001</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4.509309</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" s="1">
+        <v>222</v>
+      </c>
+      <c r="W34" s="1">
+        <v>20</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" ref="X34" si="11">W34*10</f>
+        <v>200</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1.1537846969408501</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>4.4045730000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Python Reduced Training Data Results.xlsx
+++ b/Python Reduced Training Data Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mep24db\Documents\Python\Reduced Training Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D676264-4384-4774-BF01-9F3FB8DCD976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214A5E6-D510-424C-9672-0CA522E88FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{19C7D15D-E830-43C1-9EED-066C80D1A608}"/>
   </bookViews>
   <sheets>
     <sheet name="First attempt" sheetId="1" r:id="rId1"/>
     <sheet name="DO NOT USE - Seed 21" sheetId="2" r:id="rId2"/>
     <sheet name="Grid Tests" sheetId="3" r:id="rId3"/>
     <sheet name="Strip Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Strip Tests January" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="49">
   <si>
     <t xml:space="preserve">number pulled </t>
   </si>
@@ -118,11 +119,83 @@
   <si>
     <t xml:space="preserve">plot and gpu turned off </t>
   </si>
+  <si>
+    <t>Seed 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSE 1 </t>
+  </si>
+  <si>
+    <t>NMSE 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMSE 3 </t>
+  </si>
+  <si>
+    <t>Black-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-1 </t>
+  </si>
+  <si>
+    <t>time 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time 3 </t>
+  </si>
+  <si>
+    <t>NMSE ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t ave </t>
+  </si>
+  <si>
+    <t>Seed 897</t>
+  </si>
+  <si>
+    <t>Seed 222</t>
+  </si>
+  <si>
+    <t>t ave ultra</t>
+  </si>
+  <si>
+    <t>Grey-1</t>
+  </si>
+  <si>
+    <t>Grey-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t (sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">t (hours) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 </t>
+  </si>
+  <si>
+    <t>E(ram)</t>
+  </si>
+  <si>
+    <t>E(cpu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E total </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,11 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5686,7 +5760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC8CA0-6835-4BE7-B60D-A90C6C111881}">
   <dimension ref="C2:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -6935,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F36" si="9">E34*10</f>
+        <f t="shared" ref="F34" si="9">E34*10</f>
         <v>200</v>
       </c>
       <c r="G34" s="1">
@@ -6988,4 +7062,1145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C677D49-CCEC-4FA1-94E3-B198721AA3CE}">
+  <dimension ref="A4:AL29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>25.9</v>
+      </c>
+      <c r="F7">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G7">
+        <v>23.9</v>
+      </c>
+      <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7">
+        <v>24.6</v>
+      </c>
+      <c r="J7">
+        <v>3.91</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(E7,G7,I7)</f>
+        <v>24.8</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(F7,H7,J7)</f>
+        <v>3.9333333333333336</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>36.1</v>
+      </c>
+      <c r="S7">
+        <v>3.12</v>
+      </c>
+      <c r="T7">
+        <v>29.4</v>
+      </c>
+      <c r="U7">
+        <v>3.21</v>
+      </c>
+      <c r="V7">
+        <v>31.7</v>
+      </c>
+      <c r="W7">
+        <v>3.42</v>
+      </c>
+      <c r="X7">
+        <f>AVERAGE(R7,T7,V7)</f>
+        <v>32.4</v>
+      </c>
+      <c r="Y7">
+        <f>AVERAGE(S7,U7,W7)</f>
+        <v>3.25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7">
+        <v>20</v>
+      </c>
+      <c r="AE7">
+        <v>27.4</v>
+      </c>
+      <c r="AF7">
+        <v>3.54</v>
+      </c>
+      <c r="AG7">
+        <v>30.4</v>
+      </c>
+      <c r="AH7">
+        <v>3.74</v>
+      </c>
+      <c r="AI7">
+        <v>31.9</v>
+      </c>
+      <c r="AJ7">
+        <v>3.13</v>
+      </c>
+      <c r="AK7">
+        <f>AVERAGE(AE7,AG7,AI7)</f>
+        <v>29.899999999999995</v>
+      </c>
+      <c r="AL7">
+        <f>AVERAGE(AF7,AH7,AJ7)</f>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F8">
+        <v>5.94</v>
+      </c>
+      <c r="G8">
+        <v>34.9</v>
+      </c>
+      <c r="H8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
+        <v>31.9</v>
+      </c>
+      <c r="J8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(E8,G8,I8)</f>
+        <v>33.533333333333331</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(F8,H8,J8)</f>
+        <v>4.9433333333333342</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="S8">
+        <v>4.41</v>
+      </c>
+      <c r="T8">
+        <v>34.5</v>
+      </c>
+      <c r="U8">
+        <v>4.92</v>
+      </c>
+      <c r="V8">
+        <v>34</v>
+      </c>
+      <c r="W8">
+        <v>3.9</v>
+      </c>
+      <c r="X8">
+        <f>AVERAGE(R8,T8,V8)</f>
+        <v>33.6</v>
+      </c>
+      <c r="Y8">
+        <f>AVERAGE(S8,U8,W8)</f>
+        <v>4.41</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD8">
+        <v>30</v>
+      </c>
+      <c r="AE8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AF8">
+        <v>3.99</v>
+      </c>
+      <c r="AG8">
+        <v>32.4</v>
+      </c>
+      <c r="AH8">
+        <v>3.62</v>
+      </c>
+      <c r="AI8">
+        <v>32.4</v>
+      </c>
+      <c r="AJ8">
+        <v>3.85</v>
+      </c>
+      <c r="AK8">
+        <f>AVERAGE(AE8,AG8,AI8)</f>
+        <v>32.333333333333336</v>
+      </c>
+      <c r="AL8">
+        <f>AVERAGE(AF8,AH8,AJ8)</f>
+        <v>3.8200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>25.1</v>
+      </c>
+      <c r="F9">
+        <v>5.91</v>
+      </c>
+      <c r="G9">
+        <v>27.4</v>
+      </c>
+      <c r="H9">
+        <v>5.86</v>
+      </c>
+      <c r="I9">
+        <v>24.9</v>
+      </c>
+      <c r="J9">
+        <v>5.95</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K11" si="0">AVERAGE(E9,G9,I9)</f>
+        <v>25.8</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L11" si="1">AVERAGE(F9,H9,J9)</f>
+        <v>5.9066666666666663</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>40</v>
+      </c>
+      <c r="R9">
+        <v>31.5</v>
+      </c>
+      <c r="S9">
+        <v>5.07</v>
+      </c>
+      <c r="T9">
+        <v>33.5</v>
+      </c>
+      <c r="U9">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="V9">
+        <v>31.1</v>
+      </c>
+      <c r="W9">
+        <v>4.84</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9:X11" si="2">AVERAGE(R9,T9,V9)</f>
+        <v>32.033333333333331</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y9:Y11" si="3">AVERAGE(S9,U9,W9)</f>
+        <v>4.9766666666666666</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9">
+        <v>40</v>
+      </c>
+      <c r="AE9">
+        <v>29.5</v>
+      </c>
+      <c r="AF9">
+        <v>4.96</v>
+      </c>
+      <c r="AG9">
+        <v>30.7</v>
+      </c>
+      <c r="AH9">
+        <v>5.23</v>
+      </c>
+      <c r="AI9">
+        <v>30.9</v>
+      </c>
+      <c r="AJ9">
+        <v>5.44</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" ref="AK9:AK11" si="4">AVERAGE(AE9,AG9,AI9)</f>
+        <v>30.366666666666664</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" ref="AL9:AL11" si="5">AVERAGE(AF9,AH9,AJ9)</f>
+        <v>5.2100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G10">
+        <v>15.2</v>
+      </c>
+      <c r="H10">
+        <v>7.92</v>
+      </c>
+      <c r="I10">
+        <v>15.8</v>
+      </c>
+      <c r="J10">
+        <v>7.87</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>8.1100000000000012</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>10.9</v>
+      </c>
+      <c r="S10">
+        <v>6.78</v>
+      </c>
+      <c r="T10">
+        <v>11.5</v>
+      </c>
+      <c r="U10">
+        <v>7.08</v>
+      </c>
+      <c r="V10">
+        <v>11.3</v>
+      </c>
+      <c r="W10">
+        <v>6.5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>11.233333333333334</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>6.7866666666666662</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10">
+        <v>50</v>
+      </c>
+      <c r="AE10">
+        <v>12.8</v>
+      </c>
+      <c r="AF10">
+        <v>7.25</v>
+      </c>
+      <c r="AG10">
+        <v>11.2</v>
+      </c>
+      <c r="AH10">
+        <v>6.39</v>
+      </c>
+      <c r="AI10">
+        <v>12.3</v>
+      </c>
+      <c r="AJ10">
+        <v>6.14</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="4"/>
+        <v>12.1</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>6.5933333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>AVERAGE(L11,Y11,AL11)</f>
+        <v>9.3277777777777775</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>6.33</v>
+      </c>
+      <c r="F11">
+        <v>11.3</v>
+      </c>
+      <c r="G11">
+        <v>5.96</v>
+      </c>
+      <c r="H11">
+        <v>11.2</v>
+      </c>
+      <c r="I11">
+        <v>5.74</v>
+      </c>
+      <c r="J11">
+        <v>8.61</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>6.0100000000000007</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>10.37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <v>7.37</v>
+      </c>
+      <c r="S11">
+        <v>9.73</v>
+      </c>
+      <c r="T11">
+        <v>6.57</v>
+      </c>
+      <c r="U11">
+        <v>8.66</v>
+      </c>
+      <c r="V11">
+        <v>6.86</v>
+      </c>
+      <c r="W11">
+        <v>8.41</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11">
+        <v>60</v>
+      </c>
+      <c r="AE11">
+        <v>5.58</v>
+      </c>
+      <c r="AF11">
+        <v>9.01</v>
+      </c>
+      <c r="AG11">
+        <v>6.01</v>
+      </c>
+      <c r="AH11">
+        <v>8.69</v>
+      </c>
+      <c r="AI11">
+        <v>6.19</v>
+      </c>
+      <c r="AJ11">
+        <v>8.34</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="4"/>
+        <v>5.9266666666666667</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>9.31</v>
+      </c>
+      <c r="F14">
+        <v>6.86</v>
+      </c>
+      <c r="G14">
+        <v>10.7</v>
+      </c>
+      <c r="H14">
+        <v>5.36</v>
+      </c>
+      <c r="I14">
+        <v>7.75</v>
+      </c>
+      <c r="J14">
+        <v>5.37</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(E14,G14,I14)</f>
+        <v>9.2533333333333321</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(F14,H14,J14)</f>
+        <v>5.8633333333333333</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>6.4</v>
+      </c>
+      <c r="S14">
+        <v>6.37</v>
+      </c>
+      <c r="T14">
+        <v>6.76</v>
+      </c>
+      <c r="U14">
+        <v>7.36</v>
+      </c>
+      <c r="V14">
+        <v>8.74</v>
+      </c>
+      <c r="W14">
+        <v>6.83</v>
+      </c>
+      <c r="X14">
+        <f>AVERAGE(R14,T14,V14)</f>
+        <v>7.3</v>
+      </c>
+      <c r="Y14">
+        <f>AVERAGE(S14,U14,W14)</f>
+        <v>6.8533333333333344</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD14">
+        <v>20</v>
+      </c>
+      <c r="AE14">
+        <v>11.6</v>
+      </c>
+      <c r="AF14">
+        <v>6.48</v>
+      </c>
+      <c r="AG14">
+        <v>10.7</v>
+      </c>
+      <c r="AH14">
+        <v>6.16</v>
+      </c>
+      <c r="AI14">
+        <v>9.31</v>
+      </c>
+      <c r="AJ14">
+        <v>7.38</v>
+      </c>
+      <c r="AK14">
+        <f>AVERAGE(AE14,AG14,AI14)</f>
+        <v>10.536666666666667</v>
+      </c>
+      <c r="AL14">
+        <f>AVERAGE(AF14,AH14,AJ14)</f>
+        <v>6.6733333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>AVERAGE(L14,Y14,AL14)</f>
+        <v>6.4633333333333338</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>9.02</v>
+      </c>
+      <c r="F15">
+        <v>5.83</v>
+      </c>
+      <c r="G15">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H15">
+        <v>7.8</v>
+      </c>
+      <c r="I15">
+        <v>8.06</v>
+      </c>
+      <c r="J15">
+        <v>8.93</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(E15,G15,I15)</f>
+        <v>8.9</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(F15,H15,J15)</f>
+        <v>7.52</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>30</v>
+      </c>
+      <c r="R15">
+        <v>9.73</v>
+      </c>
+      <c r="S15">
+        <v>9.15</v>
+      </c>
+      <c r="T15">
+        <v>9.58</v>
+      </c>
+      <c r="U15">
+        <v>8.49</v>
+      </c>
+      <c r="V15">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="W15">
+        <v>10.9</v>
+      </c>
+      <c r="X15">
+        <f>AVERAGE(R15,T15,V15)</f>
+        <v>9.4766666666666666</v>
+      </c>
+      <c r="Y15">
+        <f>AVERAGE(S15,U15,W15)</f>
+        <v>9.5133333333333336</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD15">
+        <v>30</v>
+      </c>
+      <c r="AE15">
+        <v>14.3</v>
+      </c>
+      <c r="AF15">
+        <v>7.94</v>
+      </c>
+      <c r="AG15">
+        <v>13.4</v>
+      </c>
+      <c r="AH15">
+        <v>7.81</v>
+      </c>
+      <c r="AI15">
+        <v>13.5</v>
+      </c>
+      <c r="AJ15">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="AK15">
+        <f>AVERAGE(AE15,AG15,AI15)</f>
+        <v>13.733333333333334</v>
+      </c>
+      <c r="AL15">
+        <f>AVERAGE(AF15,AH15,AJ15)</f>
+        <v>8.2066666666666652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>6.37</v>
+      </c>
+      <c r="F16">
+        <v>8.58</v>
+      </c>
+      <c r="G16">
+        <v>6.93</v>
+      </c>
+      <c r="H16">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I16">
+        <v>6.01</v>
+      </c>
+      <c r="J16">
+        <v>8.39</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(E16,G16,I16)</f>
+        <v>6.4366666666666674</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(F16,H16,J16)</f>
+        <v>8.4166666666666661</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="R16">
+        <v>5.8</v>
+      </c>
+      <c r="S16">
+        <v>10.4</v>
+      </c>
+      <c r="T16">
+        <v>5.17</v>
+      </c>
+      <c r="U16">
+        <v>8.58</v>
+      </c>
+      <c r="V16">
+        <v>6.1</v>
+      </c>
+      <c r="W16">
+        <v>8.85</v>
+      </c>
+      <c r="X16">
+        <f>AVERAGE(R16,T16,V16)</f>
+        <v>5.69</v>
+      </c>
+      <c r="Y16">
+        <f>AVERAGE(S16,U16,W16)</f>
+        <v>9.2766666666666655</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD16">
+        <v>40</v>
+      </c>
+      <c r="AE16">
+        <v>7.16</v>
+      </c>
+      <c r="AF16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AG16">
+        <v>8.91</v>
+      </c>
+      <c r="AH16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AI16">
+        <v>6.66</v>
+      </c>
+      <c r="AJ16">
+        <v>10.9</v>
+      </c>
+      <c r="AK16">
+        <f>AVERAGE(AE16,AG16,AI16)</f>
+        <v>7.5766666666666671</v>
+      </c>
+      <c r="AL16">
+        <f>AVERAGE(AF16,AH16,AJ16)</f>
+        <v>10.433333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>AVERAGE(L19,Y19,AL19)</f>
+        <v>4.3011111111111111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>1.27</v>
+      </c>
+      <c r="F19">
+        <v>4.87</v>
+      </c>
+      <c r="G19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H19">
+        <v>4.07</v>
+      </c>
+      <c r="I19">
+        <v>1.93</v>
+      </c>
+      <c r="J19">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19" si="6">AVERAGE(E19,G19,I19)</f>
+        <v>1.43</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19" si="7">AVERAGE(F19,H19,J19)</f>
+        <v>4.4033333333333333</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S19">
+        <v>4.33</v>
+      </c>
+      <c r="T19">
+        <v>2.65</v>
+      </c>
+      <c r="U19">
+        <v>4.18</v>
+      </c>
+      <c r="V19">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="W19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19" si="8">AVERAGE(R19,T19,V19)</f>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19" si="9">AVERAGE(S19,U19,W19)</f>
+        <v>4.2033333333333331</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19">
+        <v>20</v>
+      </c>
+      <c r="AE19">
+        <v>1.67</v>
+      </c>
+      <c r="AF19">
+        <v>4.45</v>
+      </c>
+      <c r="AG19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AH19">
+        <v>4.29</v>
+      </c>
+      <c r="AI19">
+        <v>2.15</v>
+      </c>
+      <c r="AJ19">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" ref="AK19" si="10">AVERAGE(AE19,AG19,AI19)</f>
+        <v>2.1033333333333335</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" ref="AL19" si="11">AVERAGE(AF19,AH19,AJ19)</f>
+        <v>4.2966666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>9.3277780000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>6.4633330000000004</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4.3011109999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4">
+        <f>E24/3600</f>
+        <v>2.5910494444444446E-3</v>
+      </c>
+      <c r="G25" s="4">
+        <f>G24/3600</f>
+        <v>1.7953702777777779E-3</v>
+      </c>
+      <c r="I25" s="4">
+        <f>I24/3600</f>
+        <v>1.1947530555555554E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="4">
+        <f>20/1000*E25</f>
+        <v>5.1820988888888895E-5</v>
+      </c>
+      <c r="G26" s="4">
+        <f>20/1000*G25</f>
+        <v>3.5907405555555556E-5</v>
+      </c>
+      <c r="I26" s="4">
+        <f>20/1000*I25</f>
+        <v>2.389506111111111E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="4">
+        <f>390/1000*E25</f>
+        <v>1.0105092833333335E-3</v>
+      </c>
+      <c r="G27" s="4">
+        <f>390/1000*G25</f>
+        <v>7.0019440833333341E-4</v>
+      </c>
+      <c r="I27" s="4">
+        <f>390/1000*I25</f>
+        <v>4.6595369166666661E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4">
+        <f>E27+E26</f>
+        <v>1.0623302722222224E-3</v>
+      </c>
+      <c r="G28" s="4">
+        <f>G27+G26</f>
+        <v>7.3610181388888897E-4</v>
+      </c>
+      <c r="I28" s="4">
+        <f>I27+I26</f>
+        <v>4.898487527777777E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="4">
+        <f>237.589/1000*(E26+E27)</f>
+        <v>2.5239798704700561E-4</v>
+      </c>
+      <c r="G29" s="4">
+        <f>237.589/1000*(G26+G27)</f>
+        <v>1.7488969386004723E-4</v>
+      </c>
+      <c r="I29" s="4">
+        <f>237.589/1000*(I26+I27)</f>
+        <v>1.1638267532371943E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>